--- a/natmiOut/OldD4/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Agt</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.37246367319782</v>
+        <v>3.614029333333333</v>
       </c>
       <c r="H2">
-        <v>3.37246367319782</v>
+        <v>10.842088</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9241192353022275</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9439348023377215</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.40380208883996</v>
+        <v>2.024115666666666</v>
       </c>
       <c r="N2">
-        <v>1.40380208883996</v>
+        <v>6.072347</v>
       </c>
       <c r="O2">
-        <v>0.02951595783692422</v>
+        <v>0.04033801028669426</v>
       </c>
       <c r="P2">
-        <v>0.02951595783692422</v>
+        <v>0.05315356654931184</v>
       </c>
       <c r="Q2">
-        <v>4.734271548971984</v>
+        <v>7.315213393392888</v>
       </c>
       <c r="R2">
-        <v>4.734271548971984</v>
+        <v>65.836920540536</v>
       </c>
       <c r="S2">
-        <v>0.02951595783692422</v>
+        <v>0.03727713121975328</v>
       </c>
       <c r="T2">
-        <v>0.02951595783692422</v>
+        <v>0.0501735013342696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.37246367319782</v>
+        <v>3.614029333333333</v>
       </c>
       <c r="H3">
-        <v>3.37246367319782</v>
+        <v>10.842088</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9241192353022275</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9439348023377215</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5347689272172</v>
+        <v>11.85972166666667</v>
       </c>
       <c r="N3">
-        <v>10.5347689272172</v>
+        <v>35.579165</v>
       </c>
       <c r="O3">
-        <v>0.2215011631265148</v>
+        <v>0.2363489312718777</v>
       </c>
       <c r="P3">
-        <v>0.2215011631265148</v>
+        <v>0.3114379851145606</v>
       </c>
       <c r="Q3">
-        <v>35.52812551257318</v>
+        <v>42.86138198850222</v>
       </c>
       <c r="R3">
-        <v>35.52812551257318</v>
+        <v>385.7524378965201</v>
       </c>
       <c r="S3">
-        <v>0.2215011631265148</v>
+        <v>0.2184145936314663</v>
       </c>
       <c r="T3">
-        <v>0.2215011631265148</v>
+        <v>0.293977152919571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.614029333333333</v>
+      </c>
+      <c r="H4">
+        <v>10.842088</v>
+      </c>
+      <c r="I4">
+        <v>0.9241192353022275</v>
+      </c>
+      <c r="J4">
+        <v>0.9439348023377215</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>36.29503</v>
+      </c>
+      <c r="N4">
+        <v>72.59005999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.7233130584414281</v>
+      </c>
+      <c r="P4">
+        <v>0.6354084483361276</v>
+      </c>
+      <c r="Q4">
+        <v>131.1713030742133</v>
+      </c>
+      <c r="R4">
+        <v>787.02781844528</v>
+      </c>
+      <c r="S4">
+        <v>0.6684275104510079</v>
+      </c>
+      <c r="T4">
+        <v>0.599784148083881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.151385</v>
+      </c>
+      <c r="I5">
+        <v>0.01290321480846011</v>
+      </c>
+      <c r="J5">
+        <v>0.01317989395141378</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.024115666666666</v>
+      </c>
+      <c r="N5">
+        <v>6.072347</v>
+      </c>
+      <c r="O5">
+        <v>0.04033801028669426</v>
+      </c>
+      <c r="P5">
+        <v>0.05315356654931184</v>
+      </c>
+      <c r="Q5">
+        <v>0.1021402500661111</v>
+      </c>
+      <c r="R5">
+        <v>0.9192622505949999</v>
+      </c>
+      <c r="S5">
+        <v>0.0005204900116750897</v>
+      </c>
+      <c r="T5">
+        <v>0.0007005583702593452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.151385</v>
+      </c>
+      <c r="I6">
+        <v>0.01290321480846011</v>
+      </c>
+      <c r="J6">
+        <v>0.01317989395141378</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>11.85972166666667</v>
+      </c>
+      <c r="N6">
+        <v>35.579165</v>
+      </c>
+      <c r="O6">
+        <v>0.2363489312718777</v>
+      </c>
+      <c r="P6">
+        <v>0.3114379851145606</v>
+      </c>
+      <c r="Q6">
+        <v>0.5984613215027778</v>
+      </c>
+      <c r="R6">
+        <v>5.386151893525001</v>
+      </c>
+      <c r="S6">
+        <v>0.003049661029951013</v>
+      </c>
+      <c r="T6">
+        <v>0.004104719616251894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05046166666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.151385</v>
+      </c>
+      <c r="I7">
+        <v>0.01290321480846011</v>
+      </c>
+      <c r="J7">
+        <v>0.01317989395141378</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>36.29503</v>
+      </c>
+      <c r="N7">
+        <v>72.59005999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.7233130584414281</v>
+      </c>
+      <c r="P7">
+        <v>0.6354084483361276</v>
+      </c>
+      <c r="Q7">
+        <v>1.831507705516666</v>
+      </c>
+      <c r="R7">
+        <v>10.9890462331</v>
+      </c>
+      <c r="S7">
+        <v>0.00933306376683401</v>
+      </c>
+      <c r="T7">
+        <v>0.008374615964902547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3.37246367319782</v>
-      </c>
-      <c r="H4">
-        <v>3.37246367319782</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>35.622212767277</v>
-      </c>
-      <c r="N4">
-        <v>35.622212767277</v>
-      </c>
-      <c r="O4">
-        <v>0.7489828790365609</v>
-      </c>
-      <c r="P4">
-        <v>0.7489828790365609</v>
-      </c>
-      <c r="Q4">
-        <v>120.1346185165653</v>
-      </c>
-      <c r="R4">
-        <v>120.1346185165653</v>
-      </c>
-      <c r="S4">
-        <v>0.7489828790365609</v>
-      </c>
-      <c r="T4">
-        <v>0.7489828790365609</v>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.2462915</v>
+      </c>
+      <c r="H8">
+        <v>0.492583</v>
+      </c>
+      <c r="I8">
+        <v>0.06297754988931244</v>
+      </c>
+      <c r="J8">
+        <v>0.04288530371086472</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.024115666666666</v>
+      </c>
+      <c r="N8">
+        <v>6.072347</v>
+      </c>
+      <c r="O8">
+        <v>0.04033801028669426</v>
+      </c>
+      <c r="P8">
+        <v>0.05315356654931184</v>
+      </c>
+      <c r="Q8">
+        <v>0.4985224837168333</v>
+      </c>
+      <c r="R8">
+        <v>2.991134902301</v>
+      </c>
+      <c r="S8">
+        <v>0.002540389055265886</v>
+      </c>
+      <c r="T8">
+        <v>0.002279506844782898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.2462915</v>
+      </c>
+      <c r="H9">
+        <v>0.492583</v>
+      </c>
+      <c r="I9">
+        <v>0.06297754988931244</v>
+      </c>
+      <c r="J9">
+        <v>0.04288530371086472</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.85972166666667</v>
+      </c>
+      <c r="N9">
+        <v>35.579165</v>
+      </c>
+      <c r="O9">
+        <v>0.2363489312718777</v>
+      </c>
+      <c r="P9">
+        <v>0.3114379851145606</v>
+      </c>
+      <c r="Q9">
+        <v>2.920948638865833</v>
+      </c>
+      <c r="R9">
+        <v>17.525691833195</v>
+      </c>
+      <c r="S9">
+        <v>0.01488467661046035</v>
+      </c>
+      <c r="T9">
+        <v>0.0133561125787377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.2462915</v>
+      </c>
+      <c r="H10">
+        <v>0.492583</v>
+      </c>
+      <c r="I10">
+        <v>0.06297754988931244</v>
+      </c>
+      <c r="J10">
+        <v>0.04288530371086472</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>36.29503</v>
+      </c>
+      <c r="N10">
+        <v>72.59005999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.7233130584414281</v>
+      </c>
+      <c r="P10">
+        <v>0.6354084483361276</v>
+      </c>
+      <c r="Q10">
+        <v>8.939157381245</v>
+      </c>
+      <c r="R10">
+        <v>35.75662952498</v>
+      </c>
+      <c r="S10">
+        <v>0.0455524842235862</v>
+      </c>
+      <c r="T10">
+        <v>0.02724968428734413</v>
       </c>
     </row>
   </sheetData>
